--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bigbigcyan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEA571F-25DE-6048-9877-A2973725EE21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFF1477-8C78-4145-A278-03C5B84572D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -312,12 +312,71 @@
 1) has been completed, 
 can test 1) first</t>
   </si>
+  <si>
+    <t>S2
+1. email address should be unique, but I used same email to register, register function could work. That's not right.
+2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.
+3. I have not recieved any confirmation code when I register(I know it has not completed, I just mention it)
+4.the password should be inputted twice for double check.
+5.the password should be 6-20 length.
+6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
+7.just suggestion on the page:
+7.1 "ID", this word, may make confuse to users, it can be changed to "username"
+7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
+  </si>
+  <si>
+    <t>it has not completed, right?</t>
+  </si>
+  <si>
+    <t>well done
+I think when the register part is completed, the login part is fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+well done
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S2
+1. no confirmation email
+2. how can I prove that I am a member of the University? How can I get the discount?
+3. when I booked a facility, the time is not right:the start time is 4pm and the end time is 9am.And I can book the day before today, like 9th May. It is not logic.
+4. I could not see what exact time I have booked(there is just the end time).
+5. (confuse) I just wonder that is it right that I can see other members booking on this calendar as an user.
+6. as an user, I can cancel other member's booking? That is not right.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7. the 3) 4) I have not tested, I want to test it after the booking part is finished.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>well done.
+I will test it again after the booking part is finished.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +456,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -556,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,19 +636,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -617,12 +666,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,6 +673,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,29 +721,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,182 +1227,182 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="63.83203125" customWidth="1"/>
     <col min="4" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:16" ht="29">
+      <c r="A1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:16" ht="40">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:16" ht="80">
+      <c r="A3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="22">
+      <c r="D3" s="12"/>
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="85">
+      <c r="A4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="28">
+      <c r="D4" s="12"/>
+      <c r="E4" s="21">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" ht="68">
+      <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="68">
+      <c r="A6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:16" ht="29">
+      <c r="A9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="90">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1348,265 +1415,300 @@
       <c r="D10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
+      <c r="A12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:16" ht="306">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="I13" s="12" t="s">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:16" ht="40" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="153" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:16" ht="153">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="187" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:16" ht="187">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:9" ht="24">
+      <c r="A17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="68">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:9" ht="85">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:9" ht="50">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:9" ht="119">
+      <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:9" ht="24">
+      <c r="A22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" ht="187" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="272">
+      <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:9" ht="50">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:9" ht="24">
+      <c r="A26" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="50" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="50">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:9" ht="102">
+      <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="8" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:H10 A10:E10 A13:H16 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8">
+  <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",A3)))</formula>
     </cfRule>

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFF1477-8C78-4145-A278-03C5B84572D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB3247-7D0C-B04A-A94B-47D3D224E3EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -311,18 +311,6 @@
     <t>working on:…/
 1) has been completed, 
 can test 1) first</t>
-  </si>
-  <si>
-    <t>S2
-1. email address should be unique, but I used same email to register, register function could work. That's not right.
-2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.
-3. I have not recieved any confirmation code when I register(I know it has not completed, I just mention it)
-4.the password should be inputted twice for double check.
-5.the password should be 6-20 length.
-6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
-7.just suggestion on the page:
-7.1 "ID", this word, may make confuse to users, it can be changed to "username"
-7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
   </si>
   <si>
     <t>it has not completed, right?</t>
@@ -370,6 +358,40 @@
   <si>
     <t>well done.
 I will test it again after the booking part is finished.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S2
+1. email address should be unique, but I used same email to register, register function could work. That's not right.
+2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3. I have not recieved any confirmation code when I register. I also cannot "forget password", because same server problem like this:
+I can login, so it is not the database problem I think.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.the password should be inputted twice for double check.
+5.the password should be 6-20 length.
+6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
+7.just suggestion on the page:
+7.1 "ID", this word, may make confuse to users, it can be changed to "username"
+7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -697,6 +719,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,27 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,6 +935,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2222500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4025900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3314700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471400" y="9448800"/>
+          <a:ext cx="4000500" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101827C-6188-DB4F-BA72-CCBBDACC9237}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1242,11 +1313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
       <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
@@ -1273,14 +1344,14 @@
       <c r="H2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="33"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1389,17 +1460,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -1415,14 +1486,14 @@
       <c r="D10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1447,13 +1518,13 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="306">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
@@ -1466,8 +1537,8 @@
       <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="40" t="s">
-        <v>77</v>
+      <c r="G13" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>42</v>
@@ -1487,7 +1558,7 @@
         <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>42</v>
@@ -1504,7 +1575,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>42</v>
@@ -1521,18 +1592,18 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -1549,7 +1620,7 @@
         <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>42</v>
@@ -1598,11 +1669,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="272">
@@ -1619,7 +1690,7 @@
         <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>45</v>
@@ -1654,11 +1725,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -1675,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>45</v>
@@ -1697,16 +1768,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">
@@ -1742,8 +1813,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB3247-7D0C-B04A-A94B-47D3D224E3EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31941E5-06A3-B542-8C0C-ADEF25B59E4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -385,6 +385,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3.1 I can submit the register even if I didn't give the comfirmation code.(there is just alert box once)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 4.the password should be inputted twice for double check.
 5.the password should be 6-20 length.
 6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
@@ -392,6 +411,9 @@
 7.1 "ID", this word, may make confuse to users, it can be changed to "username"
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
+  </si>
+  <si>
+    <t>3,1</t>
   </si>
 </sst>
 </file>
@@ -642,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,6 +744,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,24 +771,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,15 +965,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2222500</xdr:rowOff>
+      <xdr:rowOff>1968500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4025900</xdr:colOff>
+      <xdr:colOff>4013200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>3314700</xdr:rowOff>
+      <xdr:rowOff>3060700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -973,8 +996,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12471400" y="9448800"/>
+          <a:off x="12458700" y="9194800"/>
           <a:ext cx="4000500" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>760877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22301200" y="6769100"/>
+          <a:ext cx="7797800" cy="8926977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101827C-6188-DB4F-BA72-CCBBDACC9237}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1313,11 +1380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
       <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
@@ -1344,14 +1411,14 @@
       <c r="H2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1460,17 +1527,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -1496,6 +1563,9 @@
       <c r="H10" s="35"/>
       <c r="I10" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
@@ -1518,11 +1588,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
@@ -1599,11 +1669,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -1669,11 +1739,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="272">
@@ -1725,11 +1795,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -1768,16 +1838,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31941E5-06A3-B542-8C0C-ADEF25B59E4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363D607-6401-C440-9754-B9C02C67B8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
   </bookViews>
@@ -360,6 +360,9 @@
 I will test it again after the booking part is finished.</t>
   </si>
   <si>
+    <t>3,1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">S2
 1. email address should be unique, but I used same email to register, register function could work. That's not right.
@@ -372,8 +375,25 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">3. I have not recieved any confirmation code when I register. I also cannot "forget password", because same server problem like this:
-I can login, so it is not the database problem I think.
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> I have not recieved any confirmation code when I register. I also cannot "forget password", because same server problem like this:
+I can login, so it is not the database problem I think.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -389,6 +409,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
@@ -412,15 +433,12 @@
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
   </si>
-  <si>
-    <t>3,1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +523,12 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -744,6 +768,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -756,25 +799,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101827C-6188-DB4F-BA72-CCBBDACC9237}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1380,11 +1404,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
       <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
@@ -1411,14 +1435,14 @@
       <c r="H2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="15" t="s">
         <v>41</v>
       </c>
@@ -1527,17 +1551,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -1553,19 +1577,19 @@
       <c r="D10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="41" t="s">
-        <v>83</v>
+      <c r="N10" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
@@ -1588,11 +1612,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
@@ -1608,7 +1632,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>42</v>
@@ -1669,11 +1693,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -1739,11 +1763,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="272">
@@ -1795,11 +1819,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -1838,16 +1862,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363D607-6401-C440-9754-B9C02C67B8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{2CF56C27-F1AE-2F4B-AFC0-F9C85D1AAA72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="10900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -314,10 +308,6 @@
   </si>
   <si>
     <t>it has not completed, right?</t>
-  </si>
-  <si>
-    <t>well done
-I think when the register part is completed, the login part is fine.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -347,7 +337,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,7 +390,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -420,7 +410,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -433,16 +423,137 @@
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
   </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>well done
+I think when the register part is completed, the login part is fine.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>well done</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.There is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no separate webpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for admin to register,but we can add new admin in datebase;                    </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Reset code emial can be recieved. But </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email address can be reused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so admin id can be confused;  2.The code can only be used on the ‘forgot password’ page;        3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3.1should be inputted twice for double check;
+3.2no password verification;            3.3the password should be 6-20 length;
+3.4the password should only contain letters and numbers </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Admin can add,delete and change the detail of account information. *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reseting email is unnecessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,21 +566,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -477,7 +588,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,7 +603,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -506,7 +617,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -514,7 +625,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -529,8 +640,24 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -688,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -769,6 +902,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,31 +929,263 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -833,10 +1213,9 @@
         <sz val="20"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -853,7 +1232,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -868,7 +1247,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1004,7 +1383,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,15 +1419,15 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>760877</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2339305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,12 +1457,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03CEA08E-1FE9-3642-813A-4C11A8F9963C}" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:C6" xr:uid="{BA3B1762-DA2F-C346-AEFC-FCFF193C430E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A2:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{313FCC12-AF49-2E43-BA4E-CE1D0CF3ED89}" name="Classification" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{30991607-088A-0047-A835-157D46ED8C6A}" name="Tag" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{28A3A51E-669C-864B-863F-172311676AB0}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Classification" dataDxfId="26"/>
+    <tableColumn id="2" name="Tag" dataDxfId="25"/>
+    <tableColumn id="3" name="Description" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1132,7 +1511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1184,7 +1563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1378,42 +1757,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5101827C-6188-DB4F-BA72-CCBBDACC9237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" customWidth="1"/>
-    <col min="4" max="5" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="63.84375" customWidth="1"/>
+    <col min="4" max="5" width="20.84375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="55.83203125" customWidth="1"/>
+    <col min="7" max="7" width="55.84375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" ht="27.5">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
       <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="40">
+    <row r="2" spans="1:16" ht="35">
       <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
@@ -1435,19 +1814,19 @@
       <c r="H2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="41"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="80">
+    <row r="3" spans="1:16" ht="52.5">
       <c r="A3" s="22" t="s">
         <v>56</v>
       </c>
@@ -1483,7 +1862,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="85">
+    <row r="4" spans="1:16" ht="77.5">
       <c r="A4" s="22" t="s">
         <v>61</v>
       </c>
@@ -1515,7 +1894,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="68">
+    <row r="5" spans="1:16" ht="62">
       <c r="A5" s="22" t="s">
         <v>62</v>
       </c>
@@ -1539,7 +1918,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="68">
+    <row r="6" spans="1:16" ht="46.5">
       <c r="A6" s="26" t="s">
         <v>63</v>
       </c>
@@ -1550,21 +1929,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:16" ht="27.5">
+      <c r="A9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="90">
+    <row r="10" spans="1:16" ht="55">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1589,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1611,14 +1990,14 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" spans="1:16" ht="409.6">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
@@ -1631,8 +2010,14 @@
       <c r="E13" t="s">
         <v>74</v>
       </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>42</v>
@@ -1651,14 +2036,20 @@
       <c r="E14" t="s">
         <v>74</v>
       </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="153">
+    <row r="15" spans="1:16" ht="325.5">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1671,11 +2062,17 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>87</v>
+      </c>
       <c r="I15" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="187">
+    <row r="16" spans="1:16" ht="170.5">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1688,19 +2085,25 @@
       <c r="E16" t="s">
         <v>77</v>
       </c>
+      <c r="F16" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="I16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:9" ht="22.5">
+      <c r="A17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="68">
+    <row r="18" spans="1:9" ht="46.5">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1714,13 +2117,13 @@
         <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="85">
+    <row r="19" spans="1:9" ht="77.5">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +2137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="50">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +2151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="119">
+    <row r="21" spans="1:9" ht="108.5">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1762,15 +2165,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:9" ht="22.5">
+      <c r="A22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="272">
+    <row r="23" spans="1:9" ht="232.5">
       <c r="A23" s="9" t="s">
         <v>28</v>
       </c>
@@ -1784,13 +2187,13 @@
         <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="51">
+    <row r="24" spans="1:9" ht="46.5">
       <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +2207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="50">
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
@@ -1818,15 +2221,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:9" ht="22.5">
+      <c r="A26" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="50">
+    <row r="27" spans="1:9" ht="45">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -1840,13 +2243,13 @@
         <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="102">
+    <row r="28" spans="1:9" ht="93">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
@@ -1862,54 +2265,98 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2 E2:I2 H4:L4">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="S4">
+      <formula>NOT(ISERROR(SEARCH("S4",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="S3">
+      <formula>NOT(ISERROR(SEARCH("S3",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="S2">
+      <formula>NOT(ISERROR(SEARCH("S2",H13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="S1">
+      <formula>NOT(ISERROR(SEARCH("S1",H13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="S4">
+      <formula>NOT(ISERROR(SEARCH("S4",H15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="S3">
+      <formula>NOT(ISERROR(SEARCH("S3",H15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="S2">
+      <formula>NOT(ISERROR(SEARCH("S2",H15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="S1">
+      <formula>NOT(ISERROR(SEARCH("S1",H15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="S4">
+      <formula>NOT(ISERROR(SEARCH("S4",H16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="S3">
+      <formula>NOT(ISERROR(SEARCH("S3",H16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="S2">
+      <formula>NOT(ISERROR(SEARCH("S2",H16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="S1">
+      <formula>NOT(ISERROR(SEARCH("S1",H16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{C6FFBC77-A22F-0240-AD88-F607E8B983A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -146,10 +146,6 @@
     <t>FR3.2</t>
   </si>
   <si>
-    <t>Administrator can add a new booking into the system.
-1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
-  </si>
-  <si>
     <t>FR3.3</t>
   </si>
   <si>
@@ -308,11 +304,6 @@
   </si>
   <si>
     <t>it has not completed, right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-well done
-</t>
   </si>
   <si>
     <r>
@@ -465,6 +456,64 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>check</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+well done
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>well done               
+additional: I think we can</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> add a alert window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for detele function to prevent deleting the wrong item            </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>well done          
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>later if we have time, we can add  360° panorama for different facilities</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1.Reset code emial can be recieved. But </t>
     </r>
@@ -488,7 +537,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, so admin id can be confused;  2.The code can only be used on the ‘forgot password’ page;        3.</t>
+      <t>, so admin id can be confused; 
+2.The code can only be used on the ‘forgot password’ page;        
+3.</t>
     </r>
     <r>
       <rPr>
@@ -510,15 +561,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3.1should be inputted twice for double check;
-3.2no password verification;            3.3the password should be 6-20 length;
+      <t xml:space="preserve"> 
+3.1should be inputted twice for double check;
+3.2no password verification;           
+3.3the password should be 6-20 length;
 3.4the password should only contain letters and numbers </t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Admin can add,delete and change the detail of account information. *</t>
+      <t>Admin can add,delete and change the detail of account information.
+ *</t>
     </r>
     <r>
       <rPr>
@@ -544,12 +598,91 @@
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">well done               
+           </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator can add a new booking into the system.
+1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.User also can add new facilities  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.The layout and order of facilities will changed after adding new facilities     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.the prompt text can be improved. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(have not finished yet?)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3) and 4) have not finished
+2.Admin can not see the detial of booking for example who book the item.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User also can cancel the booking</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin can not book facilities</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -651,6 +784,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -821,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,87 +1042,140 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1184,167 +1377,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1383,7 +1415,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,16 +1450,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2339305</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,16 +1485,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>898074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2098571</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1632860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="1557869106(1).jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18151928" y="17689288"/>
+          <a:ext cx="2044143" cy="734786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Classification" dataDxfId="26"/>
-    <tableColumn id="2" name="Tag" dataDxfId="25"/>
-    <tableColumn id="3" name="Description" dataDxfId="24"/>
+    <tableColumn id="1" name="Classification" dataDxfId="2"/>
+    <tableColumn id="2" name="Tag" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1757,7 +1827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1767,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1779,25 +1849,25 @@
     <col min="4" max="5" width="20.84375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="55.84375" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="A1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
       <c r="E1" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35">
       <c r="A2" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>3</v>
@@ -1812,49 +1882,49 @@
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="35"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="44"/>
       <c r="M2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="52.5">
       <c r="A3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1864,26 +1934,26 @@
     </row>
     <row r="4" spans="1:16" ht="77.5">
       <c r="A4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="21">
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1896,13 +1966,13 @@
     </row>
     <row r="5" spans="1:16" ht="62">
       <c r="A5" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -1920,27 +1990,27 @@
     </row>
     <row r="6" spans="1:16" ht="46.5">
       <c r="A6" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="A9" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -1954,21 +2024,21 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="36"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="39"/>
       <c r="I10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
@@ -1977,25 +2047,25 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
@@ -2008,19 +2078,19 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1">
@@ -2034,42 +2104,42 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="325.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="170.5">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="170.5">
@@ -2083,24 +2153,24 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
@@ -2108,22 +2178,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="77.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="152" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2133,22 +2209,34 @@
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>93</v>
+      </c>
       <c r="I19" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="46.5">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="I20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="108.5">
@@ -2161,16 +2249,22 @@
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
@@ -2178,19 +2272,19 @@
         <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.5">
@@ -2198,138 +2292,156 @@
         <v>30</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45">
       <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.5">
+      <c r="A26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="93">
       <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
-    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L2 E2:I2 H4:L4">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="15" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",H13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="S4">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="S3">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="S3">
       <formula>NOT(ISERROR(SEARCH("S3",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="S2">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="S2">
       <formula>NOT(ISERROR(SEARCH("S2",H15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="S1">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="S1">
       <formula>NOT(ISERROR(SEARCH("S1",H15)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -661,20 +661,12 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>check(have not finished yet?)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3) and 4) have not finished
 2.Admin can not see the detial of booking for example who book the item.</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>User also can cancel the booking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin can not book facilities</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1049,6 +1041,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,35 +1080,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,7 +1407,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1451,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1837,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1853,11 +1845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
@@ -1884,14 +1876,14 @@
       <c r="H2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="44"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="15" t="s">
         <v>40</v>
       </c>
@@ -2000,17 +1992,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -2026,14 +2018,14 @@
       <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="5" t="s">
         <v>40</v>
       </c>
@@ -2061,11 +2053,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
@@ -2166,11 +2158,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
@@ -2212,7 +2204,7 @@
       <c r="F19" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="36" t="s">
         <v>93</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -2252,7 +2244,7 @@
       <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="35" t="s">
         <v>91</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -2260,11 +2252,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
@@ -2298,10 +2290,10 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>97</v>
+        <v>85</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>42</v>
@@ -2320,19 +2312,19 @@
       <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>96</v>
+      <c r="H25" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
@@ -2369,7 +2361,7 @@
         <v>85</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>42</v>
@@ -2377,16 +2369,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -1053,6 +1053,24 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1064,24 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,7 +1407,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1451,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1845,11 +1845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="E1" s="19" t="s">
         <v>70</v>
       </c>
@@ -1876,14 +1876,14 @@
       <c r="H2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="15" t="s">
         <v>40</v>
       </c>
@@ -1992,17 +1992,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -2053,11 +2053,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
@@ -2158,11 +2158,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
@@ -2252,11 +2252,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
@@ -2320,11 +2320,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
@@ -2369,16 +2369,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -33,9 +33,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>FR1.1</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -71,10 +68,6 @@
   </si>
   <si>
     <t>FR1.4</t>
-  </si>
-  <si>
-    <t>Account Information
- Update</t>
   </si>
   <si>
     <t>User and administrator can update the associated email address after login by providing following information.
@@ -87,14 +80,7 @@
     <t>FR1.x Account Related Functional Requirements</t>
   </si>
   <si>
-    <t>FR2.x Facility Related Functional Requirements</t>
-  </si>
-  <si>
     <t>FR2.1</t>
-  </si>
-  <si>
-    <t>User and administrator can search in all facilities and classes by facility name.
-1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
   </si>
   <si>
     <t>FR2.2</t>
@@ -158,10 +144,6 @@
     <t>FR4.1</t>
   </si>
   <si>
-    <t>User Booking
- Calendar</t>
-  </si>
-  <si>
     <t>User can inspect all bookings he made in a calendar view.
 1)	The calendar can be filtered by a date range.</t>
   </si>
@@ -204,9 +186,6 @@
     <t>First Test</t>
   </si>
   <si>
-    <t>Bug Classification</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
@@ -254,14 +233,6 @@
   <si>
     <t>Programmer
  Check</t>
-  </si>
-  <si>
-    <t>Account
- Recovery</t>
-  </si>
-  <si>
-    <t>Search
- Facility</t>
   </si>
   <si>
     <t>Delete 
@@ -570,35 +541,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Admin can add,delete and change the detail of account information.
- *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reseting email is unnecessary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">well done               
            </t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -669,12 +611,101 @@
     <t>User also can cancel the booking</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>User Booking
+ Calendar</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account
+ Recovery</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR1.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Information
+ Update</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin can add,delete and change the detail of account information.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I found that admin can also change the password without email code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reseting email and ID is unnecessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Suggestion:Delete the password, email and ID</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug Classification</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR2.x Facility Related Functional Requirements</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search
+ Facility</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User and administrator can search in all facilities and classes by facility name.
+1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -782,6 +813,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1053,6 +1092,21 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,23 +1119,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,7 +1446,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1490,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1829,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1845,24 +1884,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="E1" s="19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35">
       <c r="A2" s="22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>0</v>
@@ -1871,52 +1910,52 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="48"/>
+        <v>57</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="42"/>
       <c r="M2" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="52.5">
       <c r="A3" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1926,26 +1965,26 @@
     </row>
     <row r="4" spans="1:16" ht="77.5">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="21">
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1958,13 +1997,13 @@
     </row>
     <row r="5" spans="1:16" ht="62">
       <c r="A5" s="22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -1982,27 +2021,27 @@
     </row>
     <row r="6" spans="1:16" ht="46.5">
       <c r="A6" s="26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="A9" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -2013,24 +2052,24 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
@@ -2039,346 +2078,346 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
       <c r="G13" s="30" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1">
       <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="170.5">
       <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="34" t="s">
-        <v>89</v>
-      </c>
       <c r="I15" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="170.5">
       <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="152" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="46.5">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="108.5">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
       <c r="A23" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.5">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="93">
       <c r="A28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -151,10 +151,6 @@
     <t>FR4.2</t>
   </si>
   <si>
-    <t>Admin Booking
- Calendar</t>
-  </si>
-  <si>
     <t>Administrator can inspect all bookings made on the system in a calendar view which can be filtered based on:
 1)	Date range.
 2)	Facility name.
@@ -315,6 +311,316 @@
     <t>3,1</t>
   </si>
   <si>
+    <t>check</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>well done
+I think when the register part is completed, the login part is fine.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>well done</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.There is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no separate webpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for admin to register,but we can add new admin in datebase;                    </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+well done
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>well done               
+additional: I think we can</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> add a alert window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for detele function to prevent deleting the wrong item            </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>well done          
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>later if we have time, we can add  360° panorama for different facilities</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Reset code emial can be recieved. But </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email address can be reused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, so admin id can be confused; 
+2.The code can only be used on the ‘forgot password’ page;        
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+3.1should be inputted twice for double check;
+3.2no password verification;           
+3.3the password should be 6-20 length;
+3.4the password should only contain letters and numbers </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">well done               
+           </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator can add a new booking into the system.
+1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.User also can add new facilities  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2.The layout and order of facilities will changed after adding new facilities     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.the prompt text can be improved. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User also can cancel the booking</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Booking
+ Calendar</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account
+ Recovery</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR1.1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Information
+ Update</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin can add,delete and change the detail of account information.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I found that admin can also change the password without email code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reseting email and ID is unnecessary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Suggestion:Delete the password, email and ID</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug Classification</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR2.x Facility Related Functional Requirements</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search
+ Facility</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>User and administrator can search in all facilities and classes by facility name.
+1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">S2
 1. email address should be unique, but I used same email to register, register function could work. That's not right.
@@ -384,27 +690,21 @@
 7.1 "ID", this word, may make confuse to users, it can be changed to "username"
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
-  </si>
-  <si>
-    <t>check</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>well done
-I think when the register part is completed, the login part is fine.</t>
+    <t>Admin Booking
+ Calendar</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>well done</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.There is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <t xml:space="preserve">1.3) and 4) have not finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -412,7 +712,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>no separate webpage</t>
+      <t>2.Admin can not see the detial of booking for example who book the item.</t>
     </r>
     <r>
       <rPr>
@@ -422,24 +722,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for admin to register,but we can add new admin in datebase;                    </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-well done
+      <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>well done               
-additional: I think we can</t>
     </r>
     <r>
       <rPr>
@@ -451,253 +735,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> add a alert window</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for detele function to prevent deleting the wrong item            </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>well done          
-*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>later if we have time, we can add  360° panorama for different facilities</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Reset code emial can be recieved. But </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>email address can be reused</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, so admin id can be confused; 
-2.The code can only be used on the ‘forgot password’ page;        
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-3.1should be inputted twice for double check;
-3.2no password verification;           
-3.3the password should be 6-20 length;
-3.4the password should only contain letters and numbers </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">well done               
-           </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator can add a new booking into the system.
-1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.User also can add new facilities  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2.The layout and order of facilities will changed after adding new facilities     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3.the prompt text can be improved. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3) and 4) have not finished
-2.Admin can not see the detial of booking for example who book the item.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>User also can cancel the booking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Booking
- Calendar</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account
- Recovery</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR1.1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account Information
- Update</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Admin can add,delete and change the detail of account information.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I found that admin can also change the password without email code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reseting email and ID is unnecessary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Suggestion:Delete the password, email and ID</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Classification</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR2.x Facility Related Functional Requirements</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search
- Facility</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>User and administrator can search in all facilities and classes by facility name.
-1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
+      <t>3.If I sign up a new user, I can not use the user id to book in calendar cause I find that the new user didn’t have m-id in database.(I can set id in member page)</t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +744,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -822,6 +861,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1092,6 +1140,24 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1103,24 +1169,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,7 +1494,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1538,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1868,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -1884,21 +1932,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="E1" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="35">
       <c r="A2" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>2</v>
@@ -1913,49 +1961,49 @@
         <v>2</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="42"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="48"/>
       <c r="M2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="52.5">
       <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="17">
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1965,26 +2013,26 @@
     </row>
     <row r="4" spans="1:16" ht="77.5">
       <c r="A4" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="21">
         <v>2</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -1997,13 +2045,13 @@
     </row>
     <row r="5" spans="1:16" ht="62">
       <c r="A5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -2021,27 +2069,27 @@
     </row>
     <row r="6" spans="1:16" ht="46.5">
       <c r="A6" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -2055,21 +2103,21 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
@@ -2078,29 +2126,29 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -2109,19 +2157,19 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="40" customHeight="1">
@@ -2135,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
       <c r="I14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="170.5">
@@ -2155,22 +2203,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="170.5">
@@ -2178,30 +2226,30 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
@@ -2209,25 +2257,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="33" t="s">
-        <v>80</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="152" customHeight="1">
@@ -2241,13 +2289,13 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="46.5">
@@ -2255,19 +2303,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>79</v>
-      </c>
       <c r="I20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="108.5">
@@ -2281,21 +2329,21 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
@@ -2303,19 +2351,19 @@
         <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.5">
@@ -2323,19 +2371,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="45">
@@ -2343,27 +2391,27 @@
         <v>27</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
@@ -2371,53 +2419,53 @@
         <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="93">
+    <row r="28" spans="1:9" ht="108.5">
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B6E53-39ED-5943-A13E-BE9F95F872D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="10900"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -273,66 +273,23 @@
     <t>it has not completed, right?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">S2
-1. no confirmation email
-2. how can I prove that I am a member of the University? How can I get the discount?
-3. when I booked a facility, the time is not right:the start time is 4pm and the end time is 9am.And I can book the day before today, like 9th May. It is not logic.
-4. I could not see what exact time I have booked(there is just the end time).
-5. (confuse) I just wonder that is it right that I can see other members booking on this calendar as an user.
-6. as an user, I can cancel other member's booking? That is not right.
-</t>
-    </r>
-    <r>
-      <rPr>
+    <t>check</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>well done</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.There is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>7. the 3) 4) I have not tested, I want to test it after the booking part is finished.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>well done.
-I will test it again after the booking part is finished.</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>well done
-I think when the register part is completed, the login part is fine.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>well done</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.There is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -343,23 +300,23 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for admin to register,but we can add new admin in datebase;                    </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>check</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 well done
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -371,7 +328,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -382,13 +339,13 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for detele function to prevent deleting the wrong item            </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -400,14 +357,14 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>later if we have time, we can add  360° panorama for different facilities</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -418,7 +375,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -429,7 +386,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,7 +399,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -453,7 +410,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,17 +420,17 @@
 3.3the password should be 6-20 length;
 3.4the password should only contain letters and numbers </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">well done               
            </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Administrator can add a new booking into the system.
 1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -483,7 +440,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -495,7 +452,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -506,7 +463,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -518,37 +475,37 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User also can cancel the booking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User Booking
  Calendar</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Account
  Recovery</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FR1.1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Account Information
  Update</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -560,7 +517,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -571,7 +528,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +539,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -593,37 +550,103 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.
 Suggestion:Delete the password, email and ID</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Bug Classification</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FR2.x Facility Related Functional Requirements</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Search
  Facility</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User and administrator can search in all facilities and classes by facility name.
 1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin Booking
+ Calendar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3) and 4) have not finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Admin can not see the detial of booking for example who book the item.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.If I sign up a new user, I can not use the user id to book in calendar cause I find that the new user didn’t have m-id in database.(I can set id in member page)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">S2
-1. email address should be unique, but I used same email to register, register function could work. That's not right.
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>email address should be unique, but I used same email to register, register function could work. That's not right.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.
 </t>
     </r>
@@ -633,92 +656,75 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> I have not recieved any confirmation code when I register. I also cannot "forget password", because same server problem like this:
-I can login, so it is not the database problem I think.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">3. I have not recieved any confirmation code when I register. 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3.1 I can submit the register even if I didn't give the comfirmation code.(there is just alert box once)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.the password should be inputted twice for double check.
+      <t xml:space="preserve">4.the password should be inputted twice for double check.
 5.the password should be 6-20 length.
 6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
 7.just suggestion on the page:
-7.1 "ID", this word, may make confuse to users, it can be changed to "username"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7.1 "ID", this word, may make confuse to users, it can be changed to "username"???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin Booking
- Calendar</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.3) and 4) have not finished
+  </si>
+  <si>
+    <t>well done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S2
+1. no confirmation email
+2. how can I prove that I am a member of the University? How can I get the discount?
+</t>
     </r>
     <r>
       <rPr>
         <strike/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Admin can not see the detial of booking for example who book the item.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3. when I booked a facility, the time is not right:the start time is 4pm and the end time is 9am.And I can book the day before today, like 9th May. It is not logic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -727,28 +733,97 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4. I could not see what exact time I have booked(there is just the end time).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">5. (confuse) I just wonder that is it right that I can see other members booking on this calendar as an user.
+6. as an user, I can cancel other member's booking? That is not right.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7. suggestion:
+7.1 the page can show that how many the left capacity is of the facility so that the user will not be confused when the capacity is met and they cannot book it.
+7.2 I don't know what exactly others book on the calendar when the facility is "all" . &lt;&lt;&lt;&lt;&lt;&lt;------like the screenshot on the left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.If I sign up a new user, I can not use the user id to book in calendar cause I find that the new user didn’t have m-id in database.(I can set id in member page)</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>8 How about course? Can I test that now?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1.just want to make sure: does the user have the right to delete himself  account?
+2.suggestion is same with the right-&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -761,21 +836,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -783,7 +858,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -798,7 +873,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -812,7 +887,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,7 +895,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,14 +905,8 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -846,14 +915,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,7 +930,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,10 +939,33 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1040,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1131,14 +1223,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,31 +1259,19 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1206,7 +1301,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1223,7 +1318,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1238,7 +1333,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1478,94 +1573,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1968500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4013200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>3060700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12458700" y="9194800"/>
-          <a:ext cx="4000500" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171234</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22301200" y="6769100"/>
-          <a:ext cx="7797800" cy="8926977"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -1579,13 +1586,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="1557869106(1).jpg"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="1557869106(1).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1602,16 +1615,60 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44484</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1743934</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A0D197-1865-5C4B-A94C-401F201DB5F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10529040" y="21368280"/>
+          <a:ext cx="1699450" cy="4920720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Classification" dataDxfId="2"/>
-    <tableColumn id="2" name="Tag" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Classification" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tag" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1906,42 +1963,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.3046875" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
-    <col min="3" max="3" width="63.84375" customWidth="1"/>
-    <col min="4" max="5" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="55.84375" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+    <row r="1" spans="1:16" ht="29">
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="35">
+    <row r="2" spans="1:16" ht="40">
       <c r="A2" s="22" t="s">
         <v>42</v>
       </c>
@@ -1963,19 +2020,19 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="47" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="48"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="52.5">
+    <row r="3" spans="1:16" ht="60">
       <c r="A3" s="22" t="s">
         <v>48</v>
       </c>
@@ -2011,7 +2068,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="77.5">
+    <row r="4" spans="1:16" ht="85">
       <c r="A4" s="22" t="s">
         <v>53</v>
       </c>
@@ -2043,7 +2100,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="62">
+    <row r="5" spans="1:16" ht="68">
       <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
@@ -2067,7 +2124,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="46.5">
+    <row r="6" spans="1:16" ht="68">
       <c r="A6" s="26" t="s">
         <v>55</v>
       </c>
@@ -2078,21 +2135,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:16" ht="29">
+      <c r="A9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="55">
+    <row r="10" spans="1:16" ht="90">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -2116,11 +2173,9 @@
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2139,16 +2194,16 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
+      <c r="A12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
     </row>
-    <row r="13" spans="1:16" ht="409.5">
+    <row r="13" spans="1:16" ht="289">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -2160,13 +2215,13 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>35</v>
@@ -2186,24 +2241,24 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="170.5">
+    <row r="15" spans="1:16" ht="187">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -2212,67 +2267,70 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="170.5">
+    <row r="16" spans="1:16" ht="187">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>96</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+    <row r="17" spans="1:9" ht="24">
+      <c r="A17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="46.5">
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>35</v>
@@ -2289,16 +2347,16 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="46.5">
+    <row r="20" spans="1:9" ht="68">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2309,16 +2367,16 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="108.5">
+    <row r="21" spans="1:9" ht="119">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2332,21 +2390,21 @@
         <v>64</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:9" ht="24">
+      <c r="A22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="232.5">
+    <row r="23" spans="1:9" ht="340">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -2360,13 +2418,13 @@
         <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="46.5">
+    <row r="24" spans="1:9" ht="51">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
@@ -2374,19 +2432,22 @@
         <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45">
+    <row r="25" spans="1:9" ht="50">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -2397,29 +2458,29 @@
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:9" ht="24">
+      <c r="A26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="45">
+    <row r="27" spans="1:9" ht="50">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
@@ -2428,27 +2489,27 @@
         <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="108.5">
+    <row r="28" spans="1:9" ht="119">
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>36</v>
@@ -2456,18 +2517,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",A3)))</formula>
@@ -2539,7 +2600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B6E53-39ED-5943-A13E-BE9F95F872D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF6ABB7-285D-6942-BE27-6EBFB4CD9798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -625,6 +625,38 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>well done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1.just want to make sure: does the user have the right to delete himself  account?
+2.suggestion is same with the right-&gt;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">S2
 1. </t>
@@ -675,7 +707,6 @@
     </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
@@ -693,16 +724,6 @@
       <t xml:space="preserve">
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
-  </si>
-  <si>
-    <t>well done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
@@ -768,12 +789,22 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>7. suggestion:
+      <t xml:space="preserve">7. suggestion:
 7.1 the page can show that how many the left capacity is of the facility so that the user will not be confused when the capacity is met and they cannot book it.
-7.2 I don't know what exactly others book on the calendar when the facility is "all" . &lt;&lt;&lt;&lt;&lt;&lt;------like the screenshot on the left</t>
-    </r>
-    <r>
-      <rPr>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7.2 I don't know what exactly others book on the calendar when the facility is "all" . &lt;&lt;&lt;&lt;&lt;&lt;------like the screenshot on the left</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -785,6 +816,7 @@
     </r>
     <r>
       <rPr>
+        <strike/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
@@ -793,33 +825,15 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">S3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1.just want to make sure: does the user have the right to delete himself  account?
-2.suggestion is same with the right-&gt;</t>
-    </r>
+    <t>S2
+As an user, he can add facility in the home page? That's not right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -966,6 +980,20 @@
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1232,6 +1260,27 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1243,27 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1615,50 +1643,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44484</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4058</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1743934</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>296333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A0D197-1865-5C4B-A94C-401F201DB5F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10529040" y="21368280"/>
-          <a:ext cx="1699450" cy="4920720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1717,7 +1701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1769,7 +1753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1973,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1989,11 +1973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
@@ -2020,14 +2004,14 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
@@ -2136,17 +2120,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -2162,14 +2146,14 @@
       <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2195,11 +2179,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:16" ht="289">
       <c r="A13" s="8" t="s">
@@ -2218,7 +2202,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>70</v>
@@ -2244,7 +2228,7 @@
         <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
         <v>69</v>
@@ -2292,8 +2276,8 @@
       <c r="F16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>96</v>
+      <c r="G16" s="39" t="s">
+        <v>94</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>84</v>
@@ -2303,11 +2287,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -2346,8 +2330,14 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" t="s">
         <v>71</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>78</v>
@@ -2397,11 +2387,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="340">
@@ -2418,7 +2408,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
@@ -2438,7 +2428,7 @@
         <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>69</v>
@@ -2468,11 +2458,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -2489,7 +2479,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
@@ -2517,16 +2507,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -1140,6 +1140,21 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,23 +1167,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,7 +1494,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1932,11 +1932,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
@@ -1963,14 +1963,14 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="47" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="48"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
@@ -2079,17 +2079,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="55">
@@ -2140,11 +2140,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:16" ht="409.5">
       <c r="A13" s="8" t="s">
@@ -2245,11 +2245,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="46.5">
@@ -2339,11 +2339,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="232.5">
@@ -2407,11 +2407,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="45">
@@ -2456,16 +2456,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA69D74-A728-554B-BDD8-DA04E1C55AE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19300" windowHeight="10900"/>
+    <workbookView xWindow="3640" yWindow="1320" windowWidth="26000" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -270,58 +270,17 @@
 can test 1) first</t>
   </si>
   <si>
-    <t>it has not completed, right?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">S2
-1. no confirmation email
-2. how can I prove that I am a member of the University? How can I get the discount?
-3. when I booked a facility, the time is not right:the start time is 4pm and the end time is 9am.And I can book the day before today, like 9th May. It is not logic.
-4. I could not see what exact time I have booked(there is just the end time).
-5. (confuse) I just wonder that is it right that I can see other members booking on this calendar as an user.
-6. as an user, I can cancel other member's booking? That is not right.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>7. the 3) 4) I have not tested, I want to test it after the booking part is finished.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>well done.
-I will test it again after the booking part is finished.</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
     <t>check</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>well done
 I think when the register part is completed, the login part is fine.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>well done</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -332,7 +291,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -343,23 +302,23 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for admin to register,but we can add new admin in datebase;                    </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>check</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 well done
 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -371,7 +330,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -382,13 +341,13 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for detele function to prevent deleting the wrong item            </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -400,14 +359,14 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>later if we have time, we can add  360° panorama for different facilities</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -418,7 +377,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -429,7 +388,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,7 +401,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -453,7 +412,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,17 +422,17 @@
 3.3the password should be 6-20 length;
 3.4the password should only contain letters and numbers </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">well done               
            </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Administrator can add a new booking into the system.
 1)	Administrator can both book an individual facility online, and a event involving multiply facilities that is bookable by users.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -483,7 +442,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -495,7 +454,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -506,7 +465,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -518,37 +477,37 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User also can cancel the booking</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User Booking
  Calendar</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Account
  Recovery</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FR1.1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Account Information
  Update</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -560,7 +519,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -571,7 +530,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -582,7 +541,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -593,38 +552,103 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.
 Suggestion:Delete the password, email and ID</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Bug Classification</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FR2.x Facility Related Functional Requirements</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Search
  Facility</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>User and administrator can search in all facilities and classes by facility name.
 1)	The search will be fuzzy: All results containing the search keyword(s) will be displayed.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin Booking
+ Calendar</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.3) and 4) have not finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.Admin can not see the detial of booking for example who book the item.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.If I sign up a new user, I can not use the user id to book in calendar cause I find that the new user didn’t have m-id in database.(I can set id in member page)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">S2
-1. email address should be unique, but I used same email to register, register function could work. That's not right.
-2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1. no confirmation email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -633,22 +657,186 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>3.</t>
+      <t>2. Student Account can not get the discount?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
         <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3. when I booked a facility, the time is not right:the start time is 4pm and the end time is 9am</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
+      <t>.And I can book the day before today, like 9th May. It is not logic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>4. I could not see what exact time I have booked(there is just the end time).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5. (confuse) I just wonder that is it right that I can see other members booking on this calendar as an user.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">6. as an user, I can cancel other member's booking? That is not right.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7.for example: if an user book a facility from 11-11.30, he can not book the same facility on the same day again?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>well done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">S2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1. email address should be unique, but I used same email to register, register function could work. That's not right.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2. when I input an inlegal email address, the box border will be red(that's right), but I suggest that it should show some reminder(shown on the page or some alert box) to remind user to input a valid email. That will be better.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
       <t xml:space="preserve"> I have not recieved any confirmation code when I register. I also cannot "forget password", because same server problem like this:
 I can login, so it is not the database problem I think.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve">
@@ -657,8 +845,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +857,7 @@
       <rPr>
         <strike/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>3.1 I can submit the register even if I didn't give the comfirmation code.(there is just alert box once)</t>
@@ -677,78 +865,57 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.the password should be inputted twice for double check.
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">4.the password should be inputted twice for double check.
 5.the password should be 6-20 length.
 6.the password should only contain letters and numbers, but when I input  this:"," it also could work.
-7.just suggestion on the page:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>7.just suggestion on the page:
 7.1 "ID", this word, may make confuse to users, it can be changed to "username"
 7.2 "name" may be divided into "first name" and "last name". That will be better I think.</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin Booking
- Calendar</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.3) and 4) have not finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.Admin can not see the detial of booking for example who book the item.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.If I sign up a new user, I can not use the user id to book in calendar cause I find that the new user didn’t have m-id in database.(I can set id in member page)</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3
+1. the user should not have the right to delete himself account.</t>
+  </si>
+  <si>
+    <t>well done.</t>
+  </si>
+  <si>
+    <t>Why remove the css?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -761,21 +928,21 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -783,7 +950,7 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -798,7 +965,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -812,7 +979,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,7 +987,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -830,14 +997,8 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -846,14 +1007,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,7 +1022,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,9 +1031,38 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1131,14 +1321,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1152,31 +1360,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1206,7 +1396,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -1223,7 +1413,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1238,7 +1428,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1494,7 +1684,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE97C036-4BC8-4644-892D-2156C4EBCFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,50 +1712,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171234</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F2584F9-56C7-434A-9FE5-C6F43D5BC78A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22301200" y="6769100"/>
-          <a:ext cx="7797800" cy="8926977"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -1579,13 +1725,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="1557869106(1).jpg"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="1557869106(1).jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1606,12 +1758,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Classification" dataDxfId="2"/>
-    <tableColumn id="2" name="Tag" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Classification" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tag" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1906,42 +2058,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.3046875" customWidth="1"/>
-    <col min="2" max="2" width="17.4609375" customWidth="1"/>
-    <col min="3" max="3" width="63.84375" customWidth="1"/>
-    <col min="4" max="5" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" customWidth="1"/>
+    <col min="4" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="55.84375" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.5">
-      <c r="A1" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+    <row r="1" spans="1:16" ht="29">
+      <c r="A1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="35">
+    <row r="2" spans="1:16" ht="40">
       <c r="A2" s="22" t="s">
         <v>42</v>
       </c>
@@ -1963,19 +2115,19 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="52.5">
+    <row r="3" spans="1:16" ht="60">
       <c r="A3" s="22" t="s">
         <v>48</v>
       </c>
@@ -2011,7 +2163,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="77.5">
+    <row r="4" spans="1:16" ht="85">
       <c r="A4" s="22" t="s">
         <v>53</v>
       </c>
@@ -2043,7 +2195,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="62">
+    <row r="5" spans="1:16" ht="68">
       <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
@@ -2067,7 +2219,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:16" ht="46.5">
+    <row r="6" spans="1:16" ht="68">
       <c r="A6" s="26" t="s">
         <v>55</v>
       </c>
@@ -2078,21 +2230,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27.5">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:16" ht="29">
+      <c r="A9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="55">
+    <row r="10" spans="1:16" ht="90">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -2116,11 +2268,9 @@
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="31" t="s">
-        <v>70</v>
-      </c>
+      <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="22.5">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="24">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2139,16 +2289,16 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="22.5">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:16" ht="409.5">
+    <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -2160,13 +2310,13 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>35</v>
@@ -2186,93 +2336,99 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="170.5">
+    <row r="15" spans="1:16" ht="187">
       <c r="A15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
-        <v>71</v>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="170.5">
+    <row r="16" spans="1:16" ht="187">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>71</v>
+      <c r="G16" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="22.5">
-      <c r="A17" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="1:9" ht="24">
+      <c r="A17" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="46.5">
+    <row r="18" spans="1:9" ht="68">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>35</v>
@@ -2289,16 +2445,16 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="46.5">
+    <row r="20" spans="1:9" ht="68">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2309,16 +2465,16 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="108.5">
+    <row r="21" spans="1:9" ht="119">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2332,21 +2488,21 @@
         <v>64</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="22.5">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:9" ht="24">
+      <c r="A22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="232.5">
+    <row r="23" spans="1:9" ht="255">
       <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
@@ -2360,13 +2516,13 @@
         <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="46.5">
+    <row r="24" spans="1:9" ht="51">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
@@ -2374,19 +2530,19 @@
         <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45">
+    <row r="25" spans="1:9" ht="50">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -2397,29 +2553,29 @@
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="22.5">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:9" ht="24">
+      <c r="A26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="45">
+    <row r="27" spans="1:9" ht="50">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>31</v>
@@ -2428,46 +2584,51 @@
         <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="108.5">
+    <row r="28" spans="1:9" ht="119">
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="97" customHeight="1">
+      <c r="G29" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
     <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="S4">
       <formula>NOT(ISERROR(SEARCH("S4",A3)))</formula>
@@ -2539,7 +2700,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA69D74-A728-554B-BDD8-DA04E1C55AE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA0EC-206E-DB43-8BC0-BC93AB2DAF6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1320" windowWidth="26000" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="480" windowWidth="26000" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,10 +562,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Bug Classification</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>FR2.x Facility Related Functional Requirements</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -905,6 +901,9 @@
   </si>
   <si>
     <t>Why remove the css?</t>
+  </si>
+  <si>
+    <t>Bug Classification</t>
   </si>
 </sst>
 </file>
@@ -1330,6 +1329,21 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,23 +1356,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1812,7 +1811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1864,7 +1863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2068,15 +2067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
     <col min="4" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="55.83203125" customWidth="1"/>
@@ -2084,11 +2083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
@@ -2115,19 +2114,19 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="47" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="48"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="60">
+    <row r="3" spans="1:16" ht="76" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2194,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="68">
+    <row r="5" spans="1:16" ht="83" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
@@ -2231,17 +2230,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -2290,11 +2289,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
@@ -2313,7 +2312,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>70</v>
@@ -2365,7 +2364,7 @@
         <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>75</v>
@@ -2391,7 +2390,7 @@
         <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>84</v>
@@ -2401,11 +2400,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -2413,10 +2412,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -2495,11 +2494,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="255">
@@ -2516,7 +2515,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
@@ -2563,11 +2562,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -2584,7 +2583,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
@@ -2595,7 +2594,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -2604,7 +2603,7 @@
         <v>71</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>36</v>
@@ -2612,21 +2611,21 @@
     </row>
     <row r="29" spans="1:9" ht="97" customHeight="1">
       <c r="G29" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
@@ -2699,7 +2698,7 @@
       <formula>NOT(ISERROR(SEARCH("S1",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>

--- a/test/Test.xlsx
+++ b/test/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/DUS/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDA0EC-206E-DB43-8BC0-BC93AB2DAF6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA69D74-A728-554B-BDD8-DA04E1C55AE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="480" windowWidth="26000" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="1320" windowWidth="26000" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,6 +562,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Bug Classification</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>FR2.x Facility Related Functional Requirements</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -901,9 +905,6 @@
   </si>
   <si>
     <t>Why remove the css?</t>
-  </si>
-  <si>
-    <t>Bug Classification</t>
   </si>
 </sst>
 </file>
@@ -1329,6 +1330,24 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1340,24 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,7 +1812,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1863,7 +1864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2067,15 +2068,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" customWidth="1"/>
     <col min="4" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="55.83203125" customWidth="1"/>
@@ -2083,11 +2084,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29">
-      <c r="A1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
+      <c r="A1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
@@ -2114,19 +2115,19 @@
       <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="42"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="76" customHeight="1">
+    <row r="3" spans="1:16" ht="60">
       <c r="A3" s="22" t="s">
         <v>48</v>
       </c>
@@ -2194,7 +2195,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" ht="83" customHeight="1">
+    <row r="5" spans="1:16" ht="68">
       <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
@@ -2230,17 +2231,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="29">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="90">
@@ -2289,11 +2290,11 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="24">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="409.6">
       <c r="A13" s="8" t="s">
@@ -2312,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>70</v>
@@ -2364,7 +2365,7 @@
         <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>75</v>
@@ -2390,7 +2391,7 @@
         <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>84</v>
@@ -2400,11 +2401,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="24">
-      <c r="A17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="68">
@@ -2412,10 +2413,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
@@ -2494,11 +2495,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="24">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="255">
@@ -2515,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>38</v>
@@ -2562,11 +2563,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="24">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="50">
@@ -2583,7 +2584,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>38</v>
@@ -2594,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
@@ -2603,7 +2604,7 @@
         <v>71</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>36</v>
@@ -2611,21 +2612,21 @@
     </row>
     <row r="29" spans="1:9" ht="97" customHeight="1">
       <c r="G29" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G10:H10 A10:E10 D11:H12 A12 A18:H21 A17 D17:H17 A23:H25 A22 D22:H22 A27:H28 A26 D26:H26 A3:D4 A5:H8 A13:H16">
@@ -2698,7 +2699,7 @@
       <formula>NOT(ISERROR(SEARCH("S1",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$3:$B$6</formula1>
     </dataValidation>
